--- a/7/1/1/1/5/Series originales 2013 a 2021 - Trimestral.xlsx
+++ b/7/1/1/1/5/Series originales 2013 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Serie</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3709,94 +3712,189 @@
         <v>63</v>
       </c>
       <c r="B34">
-        <v>1945</v>
+        <v>1974</v>
       </c>
       <c r="C34">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D34">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="E34">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="F34">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G34">
-        <v>4056</v>
+        <v>4087</v>
       </c>
       <c r="H34">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="I34">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="J34">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L34">
         <v>279</v>
       </c>
       <c r="M34">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N34">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O34">
         <v>231</v>
       </c>
       <c r="P34">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q34">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="R34">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="S34">
-        <v>4182</v>
+        <v>4161</v>
       </c>
       <c r="T34">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="U34">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="V34">
-        <v>1416</v>
+        <v>1431</v>
       </c>
       <c r="W34">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="X34">
-        <v>3618</v>
+        <v>3629</v>
       </c>
       <c r="Y34">
-        <v>2948</v>
+        <v>2963</v>
       </c>
       <c r="Z34">
-        <v>3308</v>
+        <v>3315</v>
       </c>
       <c r="AA34">
-        <v>1872</v>
+        <v>1882</v>
       </c>
       <c r="AB34">
-        <v>34584</v>
+        <v>34660</v>
       </c>
       <c r="AC34">
-        <v>3224</v>
+        <v>3210</v>
       </c>
       <c r="AD34">
         <v>206</v>
       </c>
       <c r="AE34">
-        <v>38012</v>
+        <v>38076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>870</v>
+      </c>
+      <c r="C35">
+        <v>272</v>
+      </c>
+      <c r="D35">
+        <v>3775</v>
+      </c>
+      <c r="E35">
+        <v>3368</v>
+      </c>
+      <c r="F35">
+        <v>406</v>
+      </c>
+      <c r="G35">
+        <v>4145</v>
+      </c>
+      <c r="H35">
+        <v>1090</v>
+      </c>
+      <c r="I35">
+        <v>600</v>
+      </c>
+      <c r="J35">
+        <v>89</v>
+      </c>
+      <c r="K35">
+        <v>220</v>
+      </c>
+      <c r="L35">
+        <v>287</v>
+      </c>
+      <c r="M35">
+        <v>270</v>
+      </c>
+      <c r="N35">
+        <v>615</v>
+      </c>
+      <c r="O35">
+        <v>248</v>
+      </c>
+      <c r="P35">
+        <v>726</v>
+      </c>
+      <c r="Q35">
+        <v>1074</v>
+      </c>
+      <c r="R35">
+        <v>2160</v>
+      </c>
+      <c r="S35">
+        <v>4066</v>
+      </c>
+      <c r="T35">
+        <v>611</v>
+      </c>
+      <c r="U35">
+        <v>1565</v>
+      </c>
+      <c r="V35">
+        <v>1426</v>
+      </c>
+      <c r="W35">
+        <v>2223</v>
+      </c>
+      <c r="X35">
+        <v>3902</v>
+      </c>
+      <c r="Y35">
+        <v>2902</v>
+      </c>
+      <c r="Z35">
+        <v>5176</v>
+      </c>
+      <c r="AA35">
+        <v>1904</v>
+      </c>
+      <c r="AB35">
+        <v>36066</v>
+      </c>
+      <c r="AC35">
+        <v>3454</v>
+      </c>
+      <c r="AD35">
+        <v>165</v>
+      </c>
+      <c r="AE35">
+        <v>39677</v>
       </c>
     </row>
   </sheetData>
